--- a/sectors_list.xlsx
+++ b/sectors_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jujug\Documents\Ecole\4. NTNU\PYTHON\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15DD223-9178-477F-A2B8-C65AEA5E682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CC17C7-5E7E-4C43-A4DE-B4F596E513EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="100">
   <si>
     <t>sectorName</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Cremation</t>
-  </si>
-  <si>
-    <t>Natural &amp; Waste</t>
   </si>
   <si>
     <t>Domestic aviation LTO (civil)</t>
@@ -688,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -751,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -759,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -775,7 +772,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -783,7 +780,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -791,7 +788,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -799,7 +796,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -807,7 +804,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -815,12 +812,12 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -828,7 +825,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -836,47 +833,47 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -884,7 +881,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -892,7 +889,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -900,7 +897,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -908,39 +905,39 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
@@ -948,7 +945,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -956,7 +953,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
@@ -964,7 +961,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -972,7 +969,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
@@ -980,7 +977,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
@@ -988,7 +985,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
@@ -996,7 +993,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
@@ -1004,7 +1001,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
@@ -1012,7 +1009,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -1020,7 +1017,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
@@ -1028,23 +1025,23 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -1052,55 +1049,55 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
@@ -1108,23 +1105,23 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1132,15 +1129,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1148,23 +1145,23 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -1172,23 +1169,23 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -1196,7 +1193,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -1204,7 +1201,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -1212,7 +1209,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -1220,7 +1217,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -1228,7 +1225,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
@@ -1236,55 +1233,55 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
@@ -1292,39 +1289,39 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
@@ -1332,15 +1329,15 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
@@ -1348,7 +1345,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
@@ -1356,7 +1353,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -1364,7 +1361,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -1372,7 +1369,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -1380,7 +1377,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -1388,7 +1385,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -1396,7 +1393,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -1404,7 +1401,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -1412,50 +1409,50 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/sectors_list.xlsx
+++ b/sectors_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jujug\Documents\Ecole\4. NTNU\PYTHON\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\.Python Course\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15DD223-9178-477F-A2B8-C65AEA5E682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EC76E0-A7D6-4C72-8072-D00B1A3AB17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="100">
   <si>
     <t>sectorName</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Cremation</t>
-  </si>
-  <si>
-    <t>Natural &amp; Waste</t>
   </si>
   <si>
     <t>Domestic aviation LTO (civil)</t>
@@ -386,7 +383,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -688,17 +685,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="61.6640625" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="1" max="1" width="61.6796875" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,15 +703,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -722,7 +719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -730,7 +727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -738,7 +735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -746,23 +743,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -770,692 +767,692 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B50" t="s">
         <v>52</v>
       </c>
-      <c r="B49" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A51" t="s">
         <v>54</v>
       </c>
-      <c r="B50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A52" t="s">
         <v>55</v>
       </c>
-      <c r="B51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A53" t="s">
         <v>56</v>
       </c>
-      <c r="B52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A54" t="s">
         <v>57</v>
       </c>
-      <c r="B53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A55" t="s">
         <v>58</v>
       </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A56" t="s">
         <v>59</v>
       </c>
-      <c r="B55" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A57" t="s">
         <v>60</v>
       </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A58" t="s">
         <v>61</v>
       </c>
-      <c r="B57" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A59" t="s">
         <v>62</v>
       </c>
-      <c r="B58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A60" t="s">
         <v>63</v>
       </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A61" t="s">
         <v>64</v>
       </c>
-      <c r="B60" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A62" t="s">
         <v>65</v>
       </c>
-      <c r="B61" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A63" t="s">
         <v>66</v>
       </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A64" t="s">
         <v>67</v>
       </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A65" t="s">
         <v>68</v>
       </c>
-      <c r="B64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A66" t="s">
         <v>69</v>
       </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A67" t="s">
         <v>70</v>
       </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A68" t="s">
         <v>71</v>
       </c>
-      <c r="B67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A69" t="s">
         <v>72</v>
       </c>
-      <c r="B68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A70" t="s">
         <v>73</v>
       </c>
-      <c r="B69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A71" t="s">
         <v>74</v>
       </c>
-      <c r="B70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A72" t="s">
         <v>75</v>
       </c>
-      <c r="B71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A73" t="s">
         <v>76</v>
       </c>
-      <c r="B72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A74" t="s">
         <v>77</v>
       </c>
-      <c r="B73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A75" t="s">
         <v>78</v>
       </c>
-      <c r="B74" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="B75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A76" t="s">
         <v>79</v>
       </c>
-      <c r="B75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A77" t="s">
         <v>80</v>
       </c>
-      <c r="B76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A78" t="s">
         <v>81</v>
       </c>
-      <c r="B77" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A79" t="s">
         <v>82</v>
       </c>
-      <c r="B78" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A80" t="s">
         <v>83</v>
       </c>
-      <c r="B79" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A81" t="s">
         <v>84</v>
       </c>
-      <c r="B80" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A82" t="s">
         <v>85</v>
       </c>
-      <c r="B81" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A83" t="s">
         <v>86</v>
       </c>
-      <c r="B82" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A84" t="s">
         <v>87</v>
       </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A85" t="s">
         <v>88</v>
       </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A86" t="s">
         <v>89</v>
       </c>
-      <c r="B85" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A87" t="s">
         <v>90</v>
       </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A88" t="s">
         <v>91</v>
       </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A89" t="s">
         <v>92</v>
       </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A90" t="s">
         <v>93</v>
       </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="B90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A91" t="s">
         <v>94</v>
       </c>
-      <c r="B90" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A92" t="s">
         <v>95</v>
       </c>
-      <c r="B91" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A93" t="s">
         <v>96</v>
       </c>
-      <c r="B92" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="B93" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A94" t="s">
         <v>97</v>
       </c>
-      <c r="B93" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="B94" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A95" t="s">
         <v>98</v>
       </c>
-      <c r="B94" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>99</v>
-      </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
